--- a/Base/Teams/Buccaneers/Players Data w AB.xlsx
+++ b/Base/Teams/Buccaneers/Players Data w AB.xlsx
@@ -1,27 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24527"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/136736bc97bfa800/Robbie/Football/Simulation app/Buccaneers/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2" documentId="11_C366A8C7DAC1806F93F12437F5EA457741B60B53" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{43C8DA54-2C97-4A44-8446-147EFADFA079}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="Rushing" sheetId="1" r:id="rId1"/>
     <sheet name="Receiving" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="26">
   <si>
     <t>Name</t>
   </si>
@@ -41,52 +35,55 @@
     <t>T.Brady</t>
   </si>
   <si>
-    <t>L.Fournette</t>
-  </si>
-  <si>
     <t>R.Jones</t>
   </si>
   <si>
     <t>G.Bernard</t>
   </si>
   <si>
-    <t>C.Godwin</t>
+    <t>K.Vaughn</t>
+  </si>
+  <si>
+    <t>L.Bell</t>
+  </si>
+  <si>
+    <t>M.Evans</t>
+  </si>
+  <si>
+    <t>T.Johnson</t>
+  </si>
+  <si>
+    <t>J.Darden</t>
+  </si>
+  <si>
+    <t>C.Grayson</t>
+  </si>
+  <si>
+    <t>B.Perriman</t>
+  </si>
+  <si>
+    <t>Short Target</t>
+  </si>
+  <si>
+    <t>Short Comp</t>
+  </si>
+  <si>
+    <t>Deep Target</t>
+  </si>
+  <si>
+    <t>Deep Comp</t>
+  </si>
+  <si>
+    <t>RZ Target</t>
+  </si>
+  <si>
+    <t>RZ Comp</t>
   </si>
   <si>
     <t>A.Brown</t>
   </si>
   <si>
-    <t>J.Darden</t>
-  </si>
-  <si>
-    <t>Short Target</t>
-  </si>
-  <si>
-    <t>Short Comp</t>
-  </si>
-  <si>
-    <t>Deep Target</t>
-  </si>
-  <si>
-    <t>Deep Comp</t>
-  </si>
-  <si>
-    <t>RZ Target</t>
-  </si>
-  <si>
-    <t>RZ Comp</t>
-  </si>
-  <si>
-    <t>M.Evans</t>
-  </si>
-  <si>
     <t>S.Miller</t>
-  </si>
-  <si>
-    <t>T.Johnson</t>
-  </si>
-  <si>
-    <t>C.Grayson</t>
   </si>
   <si>
     <t>R.Gronkowski</t>
@@ -101,8 +98,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -165,14 +162,6 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
@@ -219,7 +208,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -251,27 +240,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -303,24 +274,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -496,16 +449,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F8"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:F11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -522,7 +473,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -530,19 +481,19 @@
         <v>5</v>
       </c>
       <c r="C2">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D2">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E2">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="F2">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -550,19 +501,19 @@
         <v>6</v>
       </c>
       <c r="C3">
-        <v>77</v>
+        <v>145</v>
       </c>
       <c r="D3">
+        <v>44</v>
+      </c>
+      <c r="E3">
         <v>21</v>
       </c>
-      <c r="E3">
-        <v>14</v>
-      </c>
       <c r="F3">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -570,19 +521,19 @@
         <v>7</v>
       </c>
       <c r="C4">
-        <v>29</v>
+        <v>3</v>
       </c>
       <c r="D4">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="E4">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="F4">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -590,19 +541,19 @@
         <v>8</v>
       </c>
       <c r="C5">
-        <v>2</v>
+        <v>56</v>
       </c>
       <c r="D5">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="F5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -610,19 +561,19 @@
         <v>9</v>
       </c>
       <c r="C6">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -630,7 +581,7 @@
         <v>10</v>
       </c>
       <c r="C7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -642,7 +593,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -650,15 +601,75 @@
         <v>11</v>
       </c>
       <c r="C8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" s="1">
+        <v>7</v>
+      </c>
+      <c r="B9" t="s">
+        <v>12</v>
+      </c>
+      <c r="C9">
+        <v>1</v>
+      </c>
+      <c r="D9">
+        <v>0</v>
+      </c>
+      <c r="E9">
+        <v>0</v>
+      </c>
+      <c r="F9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" s="1">
+        <v>8</v>
+      </c>
+      <c r="B10" t="s">
+        <v>13</v>
+      </c>
+      <c r="C10">
+        <v>1</v>
+      </c>
+      <c r="D10">
+        <v>0</v>
+      </c>
+      <c r="E10">
+        <v>0</v>
+      </c>
+      <c r="F10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11" s="1">
+        <v>9</v>
+      </c>
+      <c r="B11" t="s">
+        <v>14</v>
+      </c>
+      <c r="C11">
+        <v>0</v>
+      </c>
+      <c r="D11">
+        <v>1</v>
+      </c>
+      <c r="E11">
+        <v>0</v>
+      </c>
+      <c r="F11">
         <v>0</v>
       </c>
     </row>
@@ -668,37 +679,37 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:H14"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:H15"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -706,10 +717,10 @@
         <v>6</v>
       </c>
       <c r="C2">
-        <v>45</v>
+        <v>34</v>
       </c>
       <c r="D2">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="E2">
         <v>2</v>
@@ -718,13 +729,13 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H2">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -732,25 +743,25 @@
         <v>7</v>
       </c>
       <c r="C3">
-        <v>5</v>
+        <v>26</v>
       </c>
       <c r="D3">
-        <v>3</v>
+        <v>21</v>
       </c>
       <c r="E3">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="H3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -758,169 +769,169 @@
         <v>8</v>
       </c>
       <c r="C4">
-        <v>23</v>
+        <v>6</v>
       </c>
       <c r="D4">
-        <v>19</v>
+        <v>2</v>
       </c>
       <c r="E4">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G4">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="H4">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="C5">
-        <v>43</v>
+        <v>3</v>
       </c>
       <c r="D5">
-        <v>29</v>
+        <v>3</v>
       </c>
       <c r="E5">
-        <v>24</v>
+        <v>0</v>
       </c>
       <c r="F5">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="G5">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="H5">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C6">
-        <v>60</v>
+        <v>3</v>
       </c>
       <c r="D6">
-        <v>46</v>
+        <v>3</v>
       </c>
       <c r="E6">
-        <v>18</v>
+        <v>4</v>
       </c>
       <c r="F6">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="G6">
-        <v>18</v>
+        <v>1</v>
       </c>
       <c r="H6">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="C7">
-        <v>27</v>
+        <v>105</v>
       </c>
       <c r="D7">
-        <v>22</v>
+        <v>85</v>
       </c>
       <c r="E7">
-        <v>15</v>
+        <v>32</v>
       </c>
       <c r="F7">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="G7">
-        <v>3</v>
+        <v>26</v>
       </c>
       <c r="H7">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="C8">
-        <v>3</v>
+        <v>20</v>
       </c>
       <c r="D8">
+        <v>15</v>
+      </c>
+      <c r="E8">
+        <v>6</v>
+      </c>
+      <c r="F8">
+        <v>4</v>
+      </c>
+      <c r="G8">
         <v>2</v>
       </c>
-      <c r="E8">
-        <v>0</v>
-      </c>
-      <c r="F8">
-        <v>0</v>
-      </c>
-      <c r="G8">
-        <v>0</v>
-      </c>
       <c r="H8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="C9">
-        <v>21</v>
+        <v>39</v>
       </c>
       <c r="D9">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="E9">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="F9">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G9">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="H9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C10">
+        <v>7</v>
+      </c>
+      <c r="D10">
         <v>5</v>
       </c>
-      <c r="D10">
-        <v>4</v>
-      </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
@@ -932,59 +943,59 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:8">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="C11">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="D11">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F11">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="C12">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="D12">
-        <v>17</v>
+        <v>4</v>
       </c>
       <c r="E12">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="F12">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="G12">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="H12">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -992,25 +1003,25 @@
         <v>23</v>
       </c>
       <c r="C13">
-        <v>16</v>
+        <v>59</v>
       </c>
       <c r="D13">
+        <v>40</v>
+      </c>
+      <c r="E13">
+        <v>27</v>
+      </c>
+      <c r="F13">
+        <v>17</v>
+      </c>
+      <c r="G13">
         <v>12</v>
       </c>
-      <c r="E13">
-        <v>3</v>
-      </c>
-      <c r="F13">
-        <v>1</v>
-      </c>
-      <c r="G13">
-        <v>2</v>
-      </c>
       <c r="H13">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -1018,22 +1029,48 @@
         <v>24</v>
       </c>
       <c r="C14">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="D14">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E14">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G14">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="H14">
-        <v>5</v>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
+      <c r="A15" s="1">
+        <v>13</v>
+      </c>
+      <c r="B15" t="s">
+        <v>25</v>
+      </c>
+      <c r="C15">
+        <v>47</v>
+      </c>
+      <c r="D15">
+        <v>27</v>
+      </c>
+      <c r="E15">
+        <v>6</v>
+      </c>
+      <c r="F15">
+        <v>0</v>
+      </c>
+      <c r="G15">
+        <v>19</v>
+      </c>
+      <c r="H15">
+        <v>10</v>
       </c>
     </row>
   </sheetData>
